--- a/Расчет стоимости товара.xlsx
+++ b/Расчет стоимости товара.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Входная цена</t>
   </si>
@@ -57,7 +57,13 @@
     <t>Долфос уриномет мини</t>
   </si>
   <si>
-    <t>симпарика10-20кг</t>
+    <t>симпарика 1,3-2,5кг</t>
+  </si>
+  <si>
+    <t>симпарика 5-10кг</t>
+  </si>
+  <si>
+    <t>симпарика 10-20кг</t>
   </si>
 </sst>
 </file>
@@ -73,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +89,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,57 +163,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -484,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P17"/>
+  <dimension ref="A2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,116 +527,116 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="6" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="5" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="5" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="6"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="8">
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="21">
         <v>1.5</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="5">
+      <c r="G4" s="19"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="14">
         <v>1.6</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="5">
+      <c r="J4" s="15"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="14">
         <v>1.8</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="5">
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="14">
         <v>2</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="2" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -620,323 +644,437 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
-        <v>587</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="18">
+        <v>365</v>
+      </c>
+      <c r="C6" s="18">
         <v>3</v>
       </c>
-      <c r="D6" s="10">
-        <f>B6/C6</f>
-        <v>195.66666666666666</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="10">
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D7" si="0">B6/C6</f>
+        <v>121.66666666666667</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="3">
         <f>B6*F4</f>
-        <v>880.5</v>
-      </c>
-      <c r="G6" s="10">
+        <v>547.5</v>
+      </c>
+      <c r="G6" s="3">
         <f>D6*F4</f>
-        <v>293.5</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="10">
+        <v>182.5</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="3">
         <f>B6*I4</f>
-        <v>939.2</v>
-      </c>
-      <c r="J6" s="10">
+        <v>584</v>
+      </c>
+      <c r="J6" s="3">
         <f>D6*I4</f>
-        <v>313.06666666666666</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="10">
+        <v>194.66666666666669</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="3">
         <f>B6*L4</f>
-        <v>1056.6000000000001</v>
-      </c>
-      <c r="M6" s="10">
+        <v>657</v>
+      </c>
+      <c r="M6" s="3">
         <f>D6*L4</f>
-        <v>352.2</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="10">
+        <v>219</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="3">
         <f>B6*O4</f>
-        <v>1174</v>
-      </c>
-      <c r="P6" s="10">
+        <v>730</v>
+      </c>
+      <c r="P6" s="3">
         <f>D6*O4</f>
-        <v>391.33333333333331</v>
+        <v>243.33333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>517</v>
-      </c>
-      <c r="C7" s="4">
+        <v>13</v>
+      </c>
+      <c r="B7" s="18">
+        <v>471</v>
+      </c>
+      <c r="C7" s="18">
         <v>3</v>
       </c>
-      <c r="D7" s="10">
-        <f>B7/C7</f>
-        <v>172.33333333333334</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="10">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="3">
         <f>B7*F4</f>
-        <v>775.5</v>
-      </c>
-      <c r="G7" s="10">
+        <v>706.5</v>
+      </c>
+      <c r="G7" s="3">
         <f>D7*F4</f>
-        <v>258.5</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="10">
+        <v>235.5</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3">
         <f>B7*I4</f>
-        <v>827.2</v>
-      </c>
-      <c r="J7" s="10">
+        <v>753.6</v>
+      </c>
+      <c r="J7" s="3">
         <f>D7*I4</f>
-        <v>275.73333333333335</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="10">
+        <v>251.20000000000002</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="3">
         <f>B7*L4</f>
-        <v>930.6</v>
-      </c>
-      <c r="M7" s="10">
+        <v>847.80000000000007</v>
+      </c>
+      <c r="M7" s="3">
         <f>D7*L4</f>
-        <v>310.20000000000005</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="10">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="3">
         <f>B7*O4</f>
-        <v>1034</v>
-      </c>
-      <c r="P7" s="10">
+        <v>942</v>
+      </c>
+      <c r="P7" s="3">
         <f>D7*O4</f>
-        <v>344.66666666666669</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>207</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>518</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
         <f>B8/C8</f>
-        <v>207</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="10">
+        <v>172.66666666666666</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="3">
         <f>B8*F4</f>
-        <v>310.5</v>
-      </c>
-      <c r="G8" s="10">
+        <v>777</v>
+      </c>
+      <c r="G8" s="3">
         <f>D8*F4</f>
-        <v>310.5</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="10">
+        <v>259</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="3">
         <f>B8*I4</f>
-        <v>331.20000000000005</v>
-      </c>
-      <c r="J8" s="10">
+        <v>828.80000000000007</v>
+      </c>
+      <c r="J8" s="3">
         <f>D8*I4</f>
-        <v>331.20000000000005</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="10">
+        <v>276.26666666666665</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="3">
         <f>B8*L4</f>
-        <v>372.6</v>
-      </c>
-      <c r="M8" s="10">
+        <v>932.4</v>
+      </c>
+      <c r="M8" s="3">
         <f>D8*L4</f>
-        <v>372.6</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="10">
+        <v>310.8</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="3">
         <f>B8*O4</f>
-        <v>414</v>
-      </c>
-      <c r="P8" s="10">
+        <v>1036</v>
+      </c>
+      <c r="P8" s="3">
         <f>D8*O4</f>
-        <v>414</v>
+        <v>345.33333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>517</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <f>B9/C9</f>
+        <v>172.33333333333334</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="3">
+        <f>B9*F4</f>
+        <v>775.5</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9*F4</f>
+        <v>258.5</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="3">
+        <f>B9*I4</f>
+        <v>827.2</v>
+      </c>
+      <c r="J9" s="3">
+        <f>D9*I4</f>
+        <v>275.73333333333335</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="3">
+        <f>B9*L4</f>
+        <v>930.6</v>
+      </c>
+      <c r="M9" s="3">
+        <f>D9*L4</f>
+        <v>310.20000000000005</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="3">
+        <f>B9*O4</f>
+        <v>1034</v>
+      </c>
+      <c r="P9" s="3">
+        <f>D9*O4</f>
+        <v>344.66666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>207</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <f>B11/C11</f>
+        <v>207</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="3">
+        <f>B11*F4</f>
+        <v>310.5</v>
+      </c>
+      <c r="G11" s="3">
+        <f>D11*F4</f>
+        <v>310.5</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3">
+        <f>B11*I4</f>
+        <v>331.20000000000005</v>
+      </c>
+      <c r="J11" s="3">
+        <f>D11*I4</f>
+        <v>331.20000000000005</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="3">
+        <f>B11*L4</f>
+        <v>372.6</v>
+      </c>
+      <c r="M11" s="3">
+        <f>D11*L4</f>
+        <v>372.6</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="3">
+        <f>B11*O4</f>
+        <v>414</v>
+      </c>
+      <c r="P11" s="3">
+        <f>D11*O4</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B12" s="2">
         <v>178</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
-        <f>B9/C9</f>
+      <c r="D12" s="3">
+        <f>B12/C12</f>
         <v>178</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="10">
-        <f>B9*F4</f>
+      <c r="E12" s="13"/>
+      <c r="F12" s="3">
+        <f>B12*F4</f>
         <v>267</v>
       </c>
-      <c r="G9" s="10">
-        <f>D9*F4</f>
+      <c r="G12" s="3">
+        <f>D12*F4</f>
         <v>267</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="10">
-        <f>B9*I4</f>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3">
+        <f>B12*I4</f>
         <v>284.8</v>
       </c>
-      <c r="J9" s="10">
-        <f>D9*I4</f>
+      <c r="J12" s="3">
+        <f>D12*I4</f>
         <v>284.8</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="10">
-        <f>B9*L4</f>
+      <c r="K12" s="8"/>
+      <c r="L12" s="3">
+        <f>B12*L4</f>
         <v>320.40000000000003</v>
       </c>
-      <c r="M9" s="10">
-        <f>D9*L4</f>
+      <c r="M12" s="3">
+        <f>D12*L4</f>
         <v>320.40000000000003</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="10">
-        <f>B9*O4</f>
+      <c r="N12" s="8"/>
+      <c r="O12" s="3">
+        <f>B12*O4</f>
         <v>356</v>
       </c>
-      <c r="P9" s="10">
-        <f>D9*O4</f>
+      <c r="P12" s="3">
+        <f>D12*O4</f>
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-    </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="11"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="17"/>
-      <c r="H16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="17"/>
-      <c r="H17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="13"/>
+      <c r="H19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="13"/>
+      <c r="H20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="N20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="L4:M4"/>
@@ -945,6 +1083,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="E2:E20"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="D2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Расчет стоимости товара.xlsx
+++ b/Расчет стоимости товара.xlsx
@@ -189,6 +189,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -196,36 +226,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,7 +511,7 @@
   <dimension ref="A2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,19 +527,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="16" t="s">
         <v>8</v>
       </c>
@@ -555,15 +555,15 @@
       <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="10"/>
       <c r="I3" s="14" t="s">
         <v>4</v>
@@ -581,15 +581,15 @@
       <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="21">
+      <c r="E4" s="23"/>
+      <c r="F4" s="20">
         <v>1.5</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="6"/>
       <c r="I4" s="14">
         <v>1.6</v>
@@ -607,15 +607,15 @@
       <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="5"/>
@@ -644,17 +644,17 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="11">
         <v>365</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="11">
         <v>3</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="0">B6/C6</f>
         <v>121.66666666666667</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="3">
         <f>B6*F4</f>
         <v>547.5</v>
@@ -695,17 +695,17 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>471</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="11">
         <v>3</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="3">
         <f>B7*F4</f>
         <v>706.5</v>
@@ -756,7 +756,7 @@
         <f>B8/C8</f>
         <v>172.66666666666666</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="3">
         <f>B8*F4</f>
         <v>777</v>
@@ -798,57 +798,57 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>517</v>
+        <v>555</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="3">
         <f>B9/C9</f>
-        <v>172.33333333333334</v>
-      </c>
-      <c r="E9" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9" s="3">
         <f>B9*F4</f>
-        <v>775.5</v>
+        <v>832.5</v>
       </c>
       <c r="G9" s="3">
         <f>D9*F4</f>
-        <v>258.5</v>
+        <v>277.5</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="3">
         <f>B9*I4</f>
-        <v>827.2</v>
+        <v>888</v>
       </c>
       <c r="J9" s="3">
         <f>D9*I4</f>
-        <v>275.73333333333335</v>
+        <v>296</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="3">
         <f>B9*L4</f>
-        <v>930.6</v>
+        <v>999</v>
       </c>
       <c r="M9" s="3">
         <f>D9*L4</f>
-        <v>310.20000000000005</v>
+        <v>333</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="3">
         <f>B9*O4</f>
-        <v>1034</v>
+        <v>1110</v>
       </c>
       <c r="P9" s="3">
         <f>D9*O4</f>
-        <v>344.66666666666669</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="7"/>
@@ -875,7 +875,7 @@
         <f>B11/C11</f>
         <v>207</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="3">
         <f>B11*F4</f>
         <v>310.5</v>
@@ -926,7 +926,7 @@
         <f>B12/C12</f>
         <v>178</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="3">
         <f>B12*F4</f>
         <v>267</v>
@@ -967,7 +967,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="13"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7"/>
@@ -984,7 +984,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="7"/>
@@ -1001,7 +1001,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="7"/>
@@ -1018,7 +1018,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="7"/>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="8"/>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="8"/>
@@ -1062,19 +1062,25 @@
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="13"/>
+      <c r="E19" s="23"/>
       <c r="H19" s="9"/>
       <c r="K19" s="9"/>
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="13"/>
+      <c r="E20" s="23"/>
       <c r="H20" s="9"/>
       <c r="K20" s="9"/>
       <c r="N20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="E2:E20"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D2:D5"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="L4:M4"/>
@@ -1083,12 +1089,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="E2:E20"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
